--- a/Test Cases/Signup-Tenant.xlsx
+++ b/Test Cases/Signup-Tenant.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rozalyn Oledan\Contacts\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Lelis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>MULTEN - TEST CASE</t>
   </si>
@@ -120,9 +120,6 @@
     <t>The password should not be visible</t>
   </si>
   <si>
-    <t xml:space="preserve">The check boxes are alinged on the left while the buttons are aligned of the right  </t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
@@ -224,13 +221,6 @@
     <t>All fields are filled out</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Fill out all the fields
- 2. Enter Save button  </t>
-  </si>
-  <si>
-    <t>Verify that clicking Save button after entering all the required fields, submits the data to the server</t>
-  </si>
-  <si>
     <t>User's information must be submitted and saved to the server</t>
   </si>
   <si>
@@ -241,16 +231,6 @@
 </t>
   </si>
   <si>
-    <t>1. Fill out all the fields
- 2. Click on Save/Back button</t>
-  </si>
-  <si>
-    <t>The Sign Up page should have Save and Back button</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Sign Up page has Save and Back Button</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that the Sign Up page contains fields and details such as Email address, Password, Company Name, Address, City, State, Zip Code, Phone Number, Email Address, Subcription, Payment Method, Website's template, name and logo </t>
   </si>
   <si>
@@ -267,14 +247,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that not filling the fields and clicking Save button will lead to validation error
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click the Save button 
-</t>
-  </si>
-  <si>
     <t>User should not be able to Sign Up and proper error must be displayed</t>
   </si>
   <si>
@@ -282,17 +254,10 @@
   </si>
   <si>
     <t>Alphabets and special characters</t>
-  </si>
-  <si>
-    <t>1.  Enter alphabet and special characters
-2. Click Save button</t>
   </si>
   <si>
     <t xml:space="preserve">1.  Enter valid or invalid password
 </t>
-  </si>
-  <si>
-    <t>Verify that Enter/Tab key works as a substitute for the Save button</t>
   </si>
   <si>
     <t>Verify that Tab functionality is working properly or not</t>
@@ -321,18 +286,9 @@
 </t>
   </si>
   <si>
-    <t>User was not Signed Up and the page automatically moved back to the Home Page</t>
-  </si>
-  <si>
     <t>The cursor moved to the next field</t>
   </si>
   <si>
-    <t>The cursor successfully moved to the next field and the Enter key effectively used as substitute for the Save button</t>
-  </si>
-  <si>
-    <t>1. Fill out all the fields                            2. Press Save button</t>
-  </si>
-  <si>
     <t>All fields are filled out                      Existing Email</t>
   </si>
   <si>
@@ -352,6 +308,92 @@
   </si>
   <si>
     <t>All fields are filled out                      Existing Company name</t>
+  </si>
+  <si>
+    <t>Proper error was displayed when a required field is empty</t>
+  </si>
+  <si>
+    <t>The password was visible</t>
+  </si>
+  <si>
+    <t>The password was not visible</t>
+  </si>
+  <si>
+    <t>Verify that clicking sign up button after entering all the required fields, submits the data to the server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fill out all the fields
+ 2. Enter sign up button  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that not filling the fields and clicking sign up button will lead to validation error
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click the sign up button 
+</t>
+  </si>
+  <si>
+    <t>1.  Enter alphabet and special characters
+2. Click sign up button</t>
+  </si>
+  <si>
+    <t>Verify that Enter/Tab key works as a substitute for the sign up button</t>
+  </si>
+  <si>
+    <t>The cursor successfully moved to the next field and the Enter key effectively used as substitute for the sign up button</t>
+  </si>
+  <si>
+    <t>1. Fill out all the fields                            2. Press sign up button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The check boxes and buttons are alinged on the left </t>
+  </si>
+  <si>
+    <t>1. Fill out all the fields
+ 2. Click on Sign up/Back button</t>
+  </si>
+  <si>
+    <t>The Sign Up page should have Sign up and Back button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Sign Up page has Sign up and Back Button</t>
+  </si>
+  <si>
+    <t>User was not Signed Up and the page automatically moved back to the Previous Page</t>
+  </si>
+  <si>
+    <t>TC-SIGNUP-018</t>
+  </si>
+  <si>
+    <t>Verify if the user can Sign Up with a password that is less than 6 characters</t>
+  </si>
+  <si>
+    <t>Enter password that is less than 6 characters</t>
+  </si>
+  <si>
+    <t>1. Enter password that is less that 6 characters                   2. Fill out the other fields                               3. Press Save button</t>
+  </si>
+  <si>
+    <t>TC-SIGNUP-017</t>
+  </si>
+  <si>
+    <t>User was not  Signned Up and proper error was displayed</t>
+  </si>
+  <si>
+    <t>User was not Signned Up and a proper error was displayed</t>
+  </si>
+  <si>
+    <t>Test if user is able to Sign Up successfully when invalid email (without @) and password (less than 6 characters) are entered</t>
+  </si>
+  <si>
+    <t>Invalid email and invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter invalid email 
+2. Enter invalid password                     3. Fill out the rest of the fields
+3. Click the Login Button
+</t>
   </si>
 </sst>
 </file>
@@ -403,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -415,10 +457,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,11 +477,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,681 +776,787 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="10"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9" t="s">
+    </row>
+    <row r="22" spans="1:19" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="N22" s="8"/>
+      <c r="O22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="I20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="I21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="3"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="166">
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1421,6 +1566,21 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="G7:H7"/>
@@ -1433,11 +1593,18 @@
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="E18:F18"/>
@@ -1447,34 +1614,21 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K13:L13"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I8:J8"/>
@@ -1491,6 +1645,14 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="R8:S8"/>
@@ -1504,11 +1666,6 @@
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="K12:L12"/>
@@ -1518,10 +1675,24 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R7:S7"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="K6:L6"/>
@@ -1535,19 +1706,7 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
